--- a/hydrological/FlowGauge_stations.xlsx
+++ b/hydrological/FlowGauge_stations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessi\Documents\UCSB Bren\Fall 2019\Sustainable Watershed Quality Management ESM 224\santa_ynez_watershed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessi\Documents\UCSB Bren\Fall 2019\Sustainable Watershed Quality Management ESM 224\ESM224\hydrological\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A69477-B06C-4EEC-BEC9-ED2DEDD61FE7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFE7611-288A-410E-80C0-B16E6890A603}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -962,7 +962,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:D14"/>
+      <selection activeCell="A2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -997,19 +997,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B2">
-        <v>11129800</v>
+        <v>11123500</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1">
-        <v>33147</v>
+        <v>29495</v>
       </c>
       <c r="F2" s="1">
         <v>43760</v>
@@ -1017,16 +1017,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>11128250</v>
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1">
         <v>29495</v>
@@ -1057,16 +1057,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>11128250</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E5" s="1">
         <v>29495</v>
@@ -1077,19 +1077,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>11123500</v>
+        <v>11129800</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E6" s="1">
-        <v>29495</v>
+        <v>33147</v>
       </c>
       <c r="F6" s="1">
         <v>43760</v>
